--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Notes:</t>
   </si>
@@ -91,13 +91,38 @@
   <si>
     <t>Intermediate Class, David &amp; Mario, +1, No Show, Rodrigo</t>
   </si>
+  <si>
+    <t>Intermediate Class, Jaime, Mario &amp; David, +2</t>
+  </si>
+  <si>
+    <t>Advance Class, Jaime, Rodrigo,  +2</t>
+  </si>
+  <si>
+    <t>Intermediate Class, Carol, Mario &amp; David, +2</t>
+  </si>
+  <si>
+    <t>Intermediate Class, Mario &amp; David, +3</t>
+  </si>
+  <si>
+    <t>Hours:</t>
+  </si>
+  <si>
+    <t>Total Hours:</t>
+  </si>
+  <si>
+    <t>Subtotal Salary:</t>
+  </si>
+  <si>
+    <t>Salary Subtotal:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="165" formatCode="[$$-340A]#,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -383,7 +408,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -429,6 +454,12 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -819,10 +850,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,10 +862,12 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" customWidth="1"/>
     <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
@@ -849,7 +882,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -879,7 +912,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <f t="array" aca="1" ref="B3:H3" ca="1">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42912</v>
@@ -909,7 +942,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -918,7 +951,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <f t="array" aca="1" ref="B5:H5" ca="1">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42919</v>
@@ -948,7 +981,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -957,7 +990,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="array" aca="1" ref="B7:H7" ca="1">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42926</v>
@@ -986,8 +1019,14 @@
         <f ca="1"/>
         <v>42932</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1045,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="array" aca="1" ref="B9:H9" ca="1">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42933</v>
@@ -1035,8 +1074,14 @@
         <f ca="1"/>
         <v>42939</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1100,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="array" aca="1" ref="B11:H11" ca="1">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42940</v>
@@ -1084,8 +1129,14 @@
         <f ca="1"/>
         <v>42946</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -1095,12 +1146,16 @@
       <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="array" aca="1" ref="B13:C13" ca="1">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -1116,8 +1171,15 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K7:K12)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
@@ -1125,8 +1187,16 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="J14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19">
+        <f>K13*15000</f>
+        <v>405000</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
@@ -1142,7 +1212,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f ca="1">UPPER(TEXT(B17,"dddd"))</f>
@@ -1173,7 +1243,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="array" aca="1" ref="B17:H17" ca="1">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -1202,17 +1272,33 @@
         <f ca="1"/>
         <v>42953</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="array" aca="1" ref="B19:H19" ca="1">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42954</v>
@@ -1241,8 +1327,11 @@
         <f ca="1"/>
         <v>42960</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1251,7 +1340,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="array" aca="1" ref="B21:H21" ca="1">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42961</v>
@@ -1280,8 +1369,11 @@
         <f ca="1"/>
         <v>42967</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1290,7 +1382,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="array" aca="1" ref="B23:H23" ca="1">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42968</v>
@@ -1319,8 +1411,11 @@
         <f ca="1"/>
         <v>42974</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1329,7 +1424,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="array" aca="1" ref="B25:H25" ca="1">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1358,8 +1453,11 @@
         <f ca="1"/>
         <v>42981</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1368,7 +1466,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="array" aca="1" ref="B27:C27" ca="1">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42982</v>
@@ -1384,8 +1482,15 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <f>SUM(K17:K26)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="13"/>
@@ -1393,8 +1498,16 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="J28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="19">
+        <f>K27*15000</f>
+        <v>255000</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
@@ -1410,7 +1523,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f ca="1">UPPER(TEXT(B31,"dddd"))</f>
@@ -1441,7 +1554,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="array" aca="1" ref="B31:H31" ca="1">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1471,7 +1584,7 @@
         <v>42981</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4071,7 +4184,9 @@
       <c r="H168" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
     <mergeCell ref="D13:H13"/>

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>Notes:</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Salary Subtotal:</t>
+  </si>
+  <si>
+    <t>Advance Class, Rodrigo, +3</t>
   </si>
 </sst>
 </file>
@@ -440,8 +443,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -452,14 +458,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -852,8 +855,8 @@
   </sheetPr>
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,13 +1167,13 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1182,19 +1185,19 @@
     <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="18" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="14">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1332,8 +1335,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1475,13 +1482,13 @@
         <f ca="1"/>
         <v>42983</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="J27" t="s">
         <v>12</v>
       </c>
@@ -1493,19 +1500,19 @@
     <row r="28" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="J28" s="18" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="14">
         <f>K27*15000</f>
         <v>255000</v>
       </c>
-      <c r="L28" s="19"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1758,22 +1765,22 @@
         <f ca="1"/>
         <v>43011</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -2026,22 +2033,22 @@
         <f ca="1"/>
         <v>43039</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2294,22 +2301,22 @@
         <f ca="1"/>
         <v>43074</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2562,22 +2569,22 @@
         <f ca="1"/>
         <v>43102</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2830,22 +2837,22 @@
         <f ca="1"/>
         <v>43137</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -3098,22 +3105,22 @@
         <f ca="1"/>
         <v>43165</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3366,22 +3373,22 @@
         <f ca="1"/>
         <v>43193</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3634,22 +3641,22 @@
         <f ca="1"/>
         <v>43221</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
@@ -3900,22 +3907,22 @@
         <f ca="1"/>
         <v>43256</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
@@ -4166,25 +4173,37 @@
         <f ca="1"/>
         <v>43284</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="D83:H83"/>
@@ -4199,18 +4218,6 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Notes:</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Advance Class, Rodrigo, +3</t>
+  </si>
+  <si>
+    <t>Advanced/Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced/Intermediate, Mario &amp; David, Jaime, +2</t>
   </si>
 </sst>
 </file>
@@ -446,8 +452,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -455,11 +461,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -853,10 +859,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,13 +1173,13 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1185,19 +1191,19 @@
     <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="17">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1246,7 +1252,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="array" aca="1" ref="B17:H17" ca="1">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -1282,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="array" aca="1" ref="B19:H19" ca="1">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42954</v>
@@ -1333,21 +1339,30 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="array" aca="1" ref="B21:H21" ca="1">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42961</v>
@@ -1380,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1389,7 +1404,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="array" aca="1" ref="B23:H23" ca="1">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42968</v>
@@ -1422,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1431,7 +1446,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="array" aca="1" ref="B25:H25" ca="1">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1464,7 +1479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1473,7 +1488,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="array" aca="1" ref="B27:C27" ca="1">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42982</v>
@@ -1494,27 +1509,28 @@
       </c>
       <c r="K27">
         <f>SUM(K17:K26)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="17">
         <f>K27*15000</f>
-        <v>255000</v>
-      </c>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+        <v>510000</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
@@ -1530,7 +1546,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f ca="1">UPPER(TEXT(B31,"dddd"))</f>
@@ -1561,7 +1577,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="array" aca="1" ref="B31:H31" ca="1">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1591,7 +1607,7 @@
         <v>42981</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1776,11 +1792,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -2044,11 +2060,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2312,11 +2328,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2580,11 +2596,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2848,11 +2864,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -3116,11 +3132,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3384,11 +3400,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3652,11 +3668,11 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
@@ -3918,11 +3934,11 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
@@ -4184,14 +4200,28 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4204,20 +4234,6 @@
     <mergeCell ref="D112:H112"/>
     <mergeCell ref="D154:H154"/>
     <mergeCell ref="D167:H167"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Notes:</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Advanced/Intermediate, Mario &amp; David, Jaime, +2</t>
+  </si>
+  <si>
+    <t>Intermediate Class, Mario &amp; David, Jamie, +2</t>
+  </si>
+  <si>
+    <t>Advance Class, Jaime, +3</t>
   </si>
 </sst>
 </file>
@@ -452,8 +458,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -461,11 +467,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -861,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,13 +1179,13 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1191,19 +1197,19 @@
     <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1394,13 +1400,22 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
@@ -1436,10 +1451,17 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1509,26 +1531,26 @@
       </c>
       <c r="K27">
         <f>SUM(K17:K26)</f>
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
       <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="14">
         <f>K27*15000</f>
-        <v>510000</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+        <v>765000</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1792,11 +1814,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -2060,11 +2082,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2328,11 +2350,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2596,11 +2618,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2864,11 +2886,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -3132,11 +3154,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3400,11 +3422,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3668,11 +3690,11 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
@@ -3934,11 +3956,11 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
@@ -4200,14 +4222,26 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
@@ -4222,18 +4256,6 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>Notes:</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Advance Class, Jaime, +3</t>
+  </si>
+  <si>
+    <t>Intermediate, Mario &amp; David, Jamie</t>
+  </si>
+  <si>
+    <t>Kapsch</t>
+  </si>
+  <si>
+    <t>Verisure</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -458,8 +470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -467,11 +479,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -865,10 +877,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +894,7 @@
     <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
@@ -897,7 +909,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -927,7 +939,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <f t="array" aca="1" ref="B3:H3" ca="1">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42912</v>
@@ -957,7 +969,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -966,7 +978,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <f t="array" aca="1" ref="B5:H5" ca="1">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42919</v>
@@ -996,7 +1008,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1005,7 +1017,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="array" aca="1" ref="B7:H7" ca="1">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42926</v>
@@ -1041,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1072,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="array" aca="1" ref="B9:H9" ca="1">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42933</v>
@@ -1096,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1127,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="array" aca="1" ref="B11:H11" ca="1">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42940</v>
@@ -1151,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1182,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="array" aca="1" ref="B13:C13" ca="1">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -1179,13 +1191,13 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1194,24 +1206,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="17">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
@@ -1227,7 +1239,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f ca="1">UPPER(TEXT(B17,"dddd"))</f>
@@ -1257,8 +1269,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>SUNDAY</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="array" aca="1" ref="B17:H17" ca="1">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -1291,10 +1312,17 @@
         <v>11</v>
       </c>
       <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <f>K17+M17</f>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1341,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="array" aca="1" ref="B19:H19" ca="1">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42954</v>
@@ -1346,10 +1374,17 @@
         <v>11</v>
       </c>
       <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O26" si="2">K19+M19</f>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1403,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="array" aca="1" ref="B21:H21" ca="1">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42961</v>
@@ -1401,10 +1436,17 @@
         <v>11</v>
       </c>
       <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O26" si="3">K21+M21</f>
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
@@ -1419,7 +1461,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="array" aca="1" ref="B23:H23" ca="1">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42968</v>
@@ -1452,23 +1494,36 @@
         <v>11</v>
       </c>
       <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <f t="shared" ref="O23:O26" si="4">K23+M23</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="array" aca="1" ref="B25:H25" ca="1">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1500,8 +1555,15 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="5">K25+M25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1510,7 +1572,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="array" aca="1" ref="B27:C27" ca="1">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42982</v>
@@ -1531,28 +1593,36 @@
       </c>
       <c r="K27">
         <f>SUM(K17:K26)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="L27:O27" si="6">SUM(M17:M26)</f>
+        <v>38</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="14">
-        <f>K27*15000</f>
-        <v>765000</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="K28" s="17">
+        <f>O27*15000</f>
+        <v>915000</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
@@ -1568,38 +1638,38 @@
       <c r="G29" s="9"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f ca="1">UPPER(TEXT(B31,"dddd"))</f>
         <v>MONDAY</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f t="shared" ref="C30" ca="1" si="2">UPPER(TEXT(C31,"dddd"))</f>
+        <f t="shared" ref="C30" ca="1" si="7">UPPER(TEXT(C31,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f t="shared" ref="D30" ca="1" si="3">UPPER(TEXT(D31,"dddd"))</f>
+        <f t="shared" ref="D30" ca="1" si="8">UPPER(TEXT(D31,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="shared" ref="E30" ca="1" si="4">UPPER(TEXT(E31,"dddd"))</f>
+        <f t="shared" ref="E30" ca="1" si="9">UPPER(TEXT(E31,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f t="shared" ref="F30" ca="1" si="5">UPPER(TEXT(F31,"dddd"))</f>
+        <f t="shared" ref="F30" ca="1" si="10">UPPER(TEXT(F31,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" ref="G30" ca="1" si="6">UPPER(TEXT(G31,"dddd"))</f>
+        <f t="shared" ref="G30" ca="1" si="11">UPPER(TEXT(G31,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f t="shared" ref="H30" ca="1" si="7">UPPER(TEXT(H31,"dddd"))</f>
+        <f t="shared" ref="H30" ca="1" si="12">UPPER(TEXT(H31,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="array" aca="1" ref="B31:H31" ca="1">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
@@ -1629,7 +1699,7 @@
         <v>42981</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1814,11 +1884,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -1843,27 +1913,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f t="shared" ref="C44" ca="1" si="8">UPPER(TEXT(C45,"dddd"))</f>
+        <f t="shared" ref="C44" ca="1" si="13">UPPER(TEXT(C45,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f t="shared" ref="D44" ca="1" si="9">UPPER(TEXT(D45,"dddd"))</f>
+        <f t="shared" ref="D44" ca="1" si="14">UPPER(TEXT(D45,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="shared" ref="E44" ca="1" si="10">UPPER(TEXT(E45,"dddd"))</f>
+        <f t="shared" ref="E44" ca="1" si="15">UPPER(TEXT(E45,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f t="shared" ref="F44" ca="1" si="11">UPPER(TEXT(F45,"dddd"))</f>
+        <f t="shared" ref="F44" ca="1" si="16">UPPER(TEXT(F45,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G44" s="8" t="str">
-        <f t="shared" ref="G44" ca="1" si="12">UPPER(TEXT(G45,"dddd"))</f>
+        <f t="shared" ref="G44" ca="1" si="17">UPPER(TEXT(G45,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44" ca="1" si="13">UPPER(TEXT(H45,"dddd"))</f>
+        <f t="shared" ref="H44" ca="1" si="18">UPPER(TEXT(H45,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -2082,11 +2152,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2111,27 +2181,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58" ca="1" si="14">UPPER(TEXT(C59,"dddd"))</f>
+        <f t="shared" ref="C58" ca="1" si="19">UPPER(TEXT(C59,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D58" s="7" t="str">
-        <f t="shared" ref="D58" ca="1" si="15">UPPER(TEXT(D59,"dddd"))</f>
+        <f t="shared" ref="D58" ca="1" si="20">UPPER(TEXT(D59,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f t="shared" ref="E58" ca="1" si="16">UPPER(TEXT(E59,"dddd"))</f>
+        <f t="shared" ref="E58" ca="1" si="21">UPPER(TEXT(E59,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F58" s="7" t="str">
-        <f t="shared" ref="F58" ca="1" si="17">UPPER(TEXT(F59,"dddd"))</f>
+        <f t="shared" ref="F58" ca="1" si="22">UPPER(TEXT(F59,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G58" s="8" t="str">
-        <f t="shared" ref="G58" ca="1" si="18">UPPER(TEXT(G59,"dddd"))</f>
+        <f t="shared" ref="G58" ca="1" si="23">UPPER(TEXT(G59,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f t="shared" ref="H58" ca="1" si="19">UPPER(TEXT(H59,"dddd"))</f>
+        <f t="shared" ref="H58" ca="1" si="24">UPPER(TEXT(H59,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -2350,11 +2420,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2379,27 +2449,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f t="shared" ref="C72" ca="1" si="20">UPPER(TEXT(C73,"dddd"))</f>
+        <f t="shared" ref="C72" ca="1" si="25">UPPER(TEXT(C73,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D72" s="7" t="str">
-        <f t="shared" ref="D72" ca="1" si="21">UPPER(TEXT(D73,"dddd"))</f>
+        <f t="shared" ref="D72" ca="1" si="26">UPPER(TEXT(D73,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E72" s="8" t="str">
-        <f t="shared" ref="E72" ca="1" si="22">UPPER(TEXT(E73,"dddd"))</f>
+        <f t="shared" ref="E72" ca="1" si="27">UPPER(TEXT(E73,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F72" s="7" t="str">
-        <f t="shared" ref="F72" ca="1" si="23">UPPER(TEXT(F73,"dddd"))</f>
+        <f t="shared" ref="F72" ca="1" si="28">UPPER(TEXT(F73,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" ref="G72" ca="1" si="24">UPPER(TEXT(G73,"dddd"))</f>
+        <f t="shared" ref="G72" ca="1" si="29">UPPER(TEXT(G73,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H72" s="7" t="str">
-        <f t="shared" ref="H72" ca="1" si="25">UPPER(TEXT(H73,"dddd"))</f>
+        <f t="shared" ref="H72" ca="1" si="30">UPPER(TEXT(H73,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -2618,11 +2688,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2647,27 +2717,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C86" s="8" t="str">
-        <f t="shared" ref="C86" ca="1" si="26">UPPER(TEXT(C87,"dddd"))</f>
+        <f t="shared" ref="C86" ca="1" si="31">UPPER(TEXT(C87,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D86" s="7" t="str">
-        <f t="shared" ref="D86" ca="1" si="27">UPPER(TEXT(D87,"dddd"))</f>
+        <f t="shared" ref="D86" ca="1" si="32">UPPER(TEXT(D87,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E86" s="8" t="str">
-        <f t="shared" ref="E86" ca="1" si="28">UPPER(TEXT(E87,"dddd"))</f>
+        <f t="shared" ref="E86" ca="1" si="33">UPPER(TEXT(E87,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F86" s="7" t="str">
-        <f t="shared" ref="F86" ca="1" si="29">UPPER(TEXT(F87,"dddd"))</f>
+        <f t="shared" ref="F86" ca="1" si="34">UPPER(TEXT(F87,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" ref="G86" ca="1" si="30">UPPER(TEXT(G87,"dddd"))</f>
+        <f t="shared" ref="G86" ca="1" si="35">UPPER(TEXT(G87,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H86" s="7" t="str">
-        <f t="shared" ref="H86" ca="1" si="31">UPPER(TEXT(H87,"dddd"))</f>
+        <f t="shared" ref="H86" ca="1" si="36">UPPER(TEXT(H87,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -2886,11 +2956,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -2915,27 +2985,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f t="shared" ref="C100" ca="1" si="32">UPPER(TEXT(C101,"dddd"))</f>
+        <f t="shared" ref="C100" ca="1" si="37">UPPER(TEXT(C101,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D100" s="7" t="str">
-        <f t="shared" ref="D100" ca="1" si="33">UPPER(TEXT(D101,"dddd"))</f>
+        <f t="shared" ref="D100" ca="1" si="38">UPPER(TEXT(D101,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E100" s="8" t="str">
-        <f t="shared" ref="E100" ca="1" si="34">UPPER(TEXT(E101,"dddd"))</f>
+        <f t="shared" ref="E100" ca="1" si="39">UPPER(TEXT(E101,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F100" s="7" t="str">
-        <f t="shared" ref="F100" ca="1" si="35">UPPER(TEXT(F101,"dddd"))</f>
+        <f t="shared" ref="F100" ca="1" si="40">UPPER(TEXT(F101,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" ref="G100" ca="1" si="36">UPPER(TEXT(G101,"dddd"))</f>
+        <f t="shared" ref="G100" ca="1" si="41">UPPER(TEXT(G101,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H100" s="7" t="str">
-        <f t="shared" ref="H100" ca="1" si="37">UPPER(TEXT(H101,"dddd"))</f>
+        <f t="shared" ref="H100" ca="1" si="42">UPPER(TEXT(H101,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -3154,11 +3224,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3183,27 +3253,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f t="shared" ref="C114" ca="1" si="38">UPPER(TEXT(C115,"dddd"))</f>
+        <f t="shared" ref="C114" ca="1" si="43">UPPER(TEXT(C115,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D114" s="7" t="str">
-        <f t="shared" ref="D114" ca="1" si="39">UPPER(TEXT(D115,"dddd"))</f>
+        <f t="shared" ref="D114" ca="1" si="44">UPPER(TEXT(D115,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
       <c r="E114" s="8" t="str">
-        <f t="shared" ref="E114" ca="1" si="40">UPPER(TEXT(E115,"dddd"))</f>
+        <f t="shared" ref="E114" ca="1" si="45">UPPER(TEXT(E115,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
       <c r="F114" s="7" t="str">
-        <f t="shared" ref="F114" ca="1" si="41">UPPER(TEXT(F115,"dddd"))</f>
+        <f t="shared" ref="F114" ca="1" si="46">UPPER(TEXT(F115,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
       <c r="G114" s="8" t="str">
-        <f t="shared" ref="G114" ca="1" si="42">UPPER(TEXT(G115,"dddd"))</f>
+        <f t="shared" ref="G114" ca="1" si="47">UPPER(TEXT(G115,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
       <c r="H114" s="7" t="str">
-        <f t="shared" ref="H114" ca="1" si="43">UPPER(TEXT(H115,"dddd"))</f>
+        <f t="shared" ref="H114" ca="1" si="48">UPPER(TEXT(H115,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -3422,11 +3492,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3451,27 +3521,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C128" s="8" t="str">
-        <f t="shared" ref="C128:H128" ca="1" si="44">UPPER(TEXT(C129,"dddd"))</f>
+        <f t="shared" ref="C128:H128" ca="1" si="49">UPPER(TEXT(C129,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D128" s="7" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="49"/>
         <v>WEDNESDAY</v>
       </c>
       <c r="E128" s="8" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="49"/>
         <v>THURSDAY</v>
       </c>
       <c r="F128" s="7" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="49"/>
         <v>FRIDAY</v>
       </c>
       <c r="G128" s="8" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="49"/>
         <v>SATURDAY</v>
       </c>
       <c r="H128" s="7" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="49"/>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -3690,11 +3760,11 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
@@ -3717,27 +3787,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C142" s="8" t="str">
-        <f t="shared" ref="C142:H142" ca="1" si="45">UPPER(TEXT(C143,"dddd"))</f>
+        <f t="shared" ref="C142:H142" ca="1" si="50">UPPER(TEXT(C143,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D142" s="7" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v>WEDNESDAY</v>
       </c>
       <c r="E142" s="8" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v>THURSDAY</v>
       </c>
       <c r="F142" s="7" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v>FRIDAY</v>
       </c>
       <c r="G142" s="8" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v>SATURDAY</v>
       </c>
       <c r="H142" s="7" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -3956,11 +4026,11 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
@@ -3983,27 +4053,27 @@
         <v>MONDAY</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f t="shared" ref="C156:H156" ca="1" si="46">UPPER(TEXT(C157,"dddd"))</f>
+        <f t="shared" ref="C156:H156" ca="1" si="51">UPPER(TEXT(C157,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
       <c r="D156" s="7" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>WEDNESDAY</v>
       </c>
       <c r="E156" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>THURSDAY</v>
       </c>
       <c r="F156" s="7" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>FRIDAY</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>SATURDAY</v>
       </c>
       <c r="H156" s="7" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>SUNDAY</v>
       </c>
     </row>
@@ -4222,26 +4292,14 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
@@ -4256,6 +4314,18 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Notes:</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Advanced Class</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -479,11 +482,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -879,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1194,13 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1209,19 +1212,19 @@
     <row r="14" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="2"/>
@@ -1380,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O26" si="2">K19+M19</f>
+        <f t="shared" ref="O19" si="2">K19+M19</f>
         <v>17</v>
       </c>
     </row>
@@ -1442,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O26" si="3">K21+M21</f>
+        <f t="shared" ref="O21" si="3">K21+M21</f>
         <v>7</v>
       </c>
     </row>
@@ -1500,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O26" si="4">K23+M23</f>
+        <f t="shared" ref="O23" si="4">K23+M23</f>
         <v>15</v>
       </c>
     </row>
@@ -1556,18 +1559,26 @@
         <v>11</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O26" si="5">K25+M25</f>
-        <v>5</v>
+        <f t="shared" ref="O25" si="5">K25+M25</f>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
@@ -1593,34 +1604,34 @@
       </c>
       <c r="K27">
         <f>SUM(K17:K26)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="L27:O27" si="6">SUM(M17:M26)</f>
+        <f t="shared" ref="M27:O27" si="6">SUM(M17:M26)</f>
         <v>38</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
       <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="14">
         <f>O27*15000</f>
-        <v>915000</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+        <v>900000</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="2"/>
@@ -1884,11 +1895,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="2"/>
@@ -2152,11 +2163,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="2"/>
@@ -2420,11 +2431,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="2"/>
@@ -2688,11 +2699,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="2"/>
@@ -2956,11 +2967,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A99" s="2"/>
@@ -3224,11 +3235,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A113" s="2"/>
@@ -3492,11 +3503,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A127" s="2"/>
@@ -3760,11 +3771,11 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B141" s="1">
@@ -4026,11 +4037,11 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B155" s="1">
@@ -4292,14 +4303,26 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
@@ -4314,18 +4337,6 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">

--- a/Money/Executive_English_Now/Pay_Calendar.xlsx
+++ b/Money/Executive_English_Now/Pay_Calendar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>Notes:</t>
   </si>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="[$$-340A]#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -171,11 +171,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
@@ -248,6 +243,61 @@
     <font>
       <sz val="11"/>
       <color indexed="63"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="4" tint="-0.24994659260841701"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,88 +457,86 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="9" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="5" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="11" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="8" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -882,92 +930,94 @@
   </sheetPr>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="4" customWidth="1"/>
+    <col min="3" max="8" width="17.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.77734375" style="4"/>
+    <col min="14" max="14" width="6.77734375" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <f ca="1">YEAR(TODAY())</f>
         <v>2017</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f ca="1">UPPER(TEXT(C3,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="6" t="str">
         <f t="shared" ref="D2:H2" ca="1" si="0">UPPER(TEXT(D3,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F2" s="7" t="str">
+      <c r="F2" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H2" s="7" t="str">
+      <c r="H2" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <f t="array" aca="1" ref="B3:H3" ca="1">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42912</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <f ca="1"/>
         <v>42913</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f ca="1"/>
         <v>42914</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <f ca="1"/>
         <v>42915</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <f ca="1"/>
         <v>42916</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <f ca="1"/>
         <v>42917</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="9">
         <f ca="1"/>
         <v>42918</v>
       </c>
@@ -982,31 +1032,31 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <f t="array" aca="1" ref="B5:H5" ca="1">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42919</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f ca="1"/>
         <v>42920</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f ca="1"/>
         <v>42921</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <f ca="1"/>
         <v>42922</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <f ca="1"/>
         <v>42923</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <f ca="1"/>
         <v>42924</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <f ca="1"/>
         <v>42925</v>
       </c>
@@ -1021,38 +1071,38 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <f t="array" aca="1" ref="B7:H7" ca="1">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42926</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <f ca="1"/>
         <v>42927</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f ca="1"/>
         <v>42928</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <f ca="1"/>
         <v>42929</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <f ca="1"/>
         <v>42930</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <f ca="1"/>
         <v>42931</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <f ca="1"/>
         <v>42932</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1076,38 +1126,38 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="8">
         <f t="array" aca="1" ref="B9:H9" ca="1">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42933</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <f ca="1"/>
         <v>42934</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <f ca="1"/>
         <v>42935</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <f ca="1"/>
         <v>42936</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <f ca="1"/>
         <v>42937</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <f ca="1"/>
         <v>42938</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="9">
         <f ca="1"/>
         <v>42939</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1131,38 +1181,38 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <f t="array" aca="1" ref="B11:H11" ca="1">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42940</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <f ca="1"/>
         <v>42941</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <f ca="1"/>
         <v>42942</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <f ca="1"/>
         <v>42943</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="8">
         <f ca="1"/>
         <v>42944</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <f ca="1"/>
         <v>42945</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <f ca="1"/>
         <v>42946</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1186,25 +1236,25 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <f t="array" aca="1" ref="B13:C13" ca="1">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="J13" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <f>SUM(K7:K12)</f>
         <v>27</v>
       </c>
@@ -1212,115 +1262,115 @@
     <row r="14" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="15">
         <f>K13*15000</f>
         <v>405000</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
         <f ca="1">YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2017</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7" t="str">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="str">
         <f ca="1">UPPER(TEXT(B17,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="7" t="str">
         <f t="shared" ref="C16:H16" ca="1" si="1">UPPER(TEXT(C17,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="H16" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SUNDAY</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <f t="array" aca="1" ref="B17:H17" ca="1">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <f ca="1"/>
         <v>42949</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <f ca="1"/>
         <v>42950</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <f ca="1"/>
         <v>42951</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="8">
         <f ca="1"/>
         <v>42952</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="9">
         <f ca="1"/>
         <v>42953</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>12</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <f>K17+M17</f>
         <v>17</v>
       </c>
@@ -1345,44 +1395,44 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="8">
         <f t="array" aca="1" ref="B19:H19" ca="1">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42954</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <f ca="1"/>
         <v>42955</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <f ca="1"/>
         <v>42956</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <f ca="1"/>
         <v>42957</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="8">
         <f ca="1"/>
         <v>42958</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="8">
         <f ca="1"/>
         <v>42959</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="9">
         <f ca="1"/>
         <v>42960</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>5</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>12</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <f t="shared" ref="O19" si="2">K19+M19</f>
         <v>17</v>
       </c>
@@ -1407,44 +1457,44 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="8">
         <f t="array" aca="1" ref="B21:H21" ca="1">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42961</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <f ca="1"/>
         <v>42962</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <f ca="1"/>
         <v>42963</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <f ca="1"/>
         <v>42964</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <f ca="1"/>
         <v>42965</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <f ca="1"/>
         <v>42966</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="9">
         <f ca="1"/>
         <v>42967</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>4</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <f t="shared" ref="O21" si="3">K21+M21</f>
         <v>7</v>
       </c>
@@ -1465,44 +1515,44 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="8">
         <f t="array" aca="1" ref="B23:H23" ca="1">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42968</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <f ca="1"/>
         <v>42969</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <f ca="1"/>
         <v>42970</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <f ca="1"/>
         <v>42971</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="8">
         <f ca="1"/>
         <v>42972</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="8">
         <f ca="1"/>
         <v>42973</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="9">
         <f ca="1"/>
         <v>42974</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>5</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>10</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="4">
         <f t="shared" ref="O23" si="4">K23+M23</f>
         <v>15</v>
       </c>
@@ -1527,41 +1577,41 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="8">
         <f t="array" aca="1" ref="B25:H25" ca="1">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="8">
         <f ca="1"/>
         <v>42976</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <f ca="1"/>
         <v>42977</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <f ca="1"/>
         <v>42978</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="8">
         <f ca="1"/>
         <v>42979</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="8">
         <f ca="1"/>
         <v>42980</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="9">
         <f ca="1"/>
         <v>42981</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>4</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="4">
         <f t="shared" ref="O25" si="5">K25+M25</f>
         <v>4</v>
       </c>
@@ -1581,36 +1631,36 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="B27" s="8">
         <f t="array" aca="1" ref="B27:C27" ca="1">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42982</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <f ca="1"/>
         <v>42983</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="J27" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <f>SUM(K17:K26)</f>
         <v>22</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <f t="shared" ref="M27:O27" si="6">SUM(M17:M26)</f>
         <v>38</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
@@ -1618,96 +1668,105 @@
     <row r="28" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="J28" s="13" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="J28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="15">
         <f>O27*15000</f>
         <v>900000</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
         <f ca="1">YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2017</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="2"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7" t="str">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="str">
         <f ca="1">UPPER(TEXT(B31,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="7" t="str">
         <f t="shared" ref="C30" ca="1" si="7">UPPER(TEXT(C31,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D30" s="6" t="str">
         <f t="shared" ref="D30" ca="1" si="8">UPPER(TEXT(D31,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="7" t="str">
         <f t="shared" ref="E30" ca="1" si="9">UPPER(TEXT(E31,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F30" s="7" t="str">
+      <c r="F30" s="6" t="str">
         <f t="shared" ref="F30" ca="1" si="10">UPPER(TEXT(F31,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="7" t="str">
         <f t="shared" ref="G30" ca="1" si="11">UPPER(TEXT(G31,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H30" s="7" t="str">
+      <c r="H30" s="6" t="str">
         <f t="shared" ref="H30" ca="1" si="12">UPPER(TEXT(H31,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
+      <c r="K30" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="B31" s="8">
         <f t="array" aca="1" ref="B31:H31" ca="1">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42975</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="8">
         <f ca="1"/>
         <v>42976</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="8">
         <f ca="1"/>
         <v>42977</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="8">
         <f ca="1"/>
         <v>42978</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="8">
         <f ca="1"/>
         <v>42979</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="8">
         <f ca="1"/>
         <v>42980</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="9">
         <f ca="1"/>
         <v>42981</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,270 +1774,348 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
+    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
         <f t="array" aca="1" ref="B33:H33" ca="1">Days+8+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42982</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <f ca="1"/>
         <v>42983</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="8">
         <f ca="1"/>
         <v>42984</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="8">
         <f ca="1"/>
         <v>42985</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="8">
         <f ca="1"/>
         <v>42986</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="8">
         <f ca="1"/>
         <v>42987</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="9">
         <f ca="1"/>
         <v>42988</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
         <f t="array" aca="1" ref="B35:H35" ca="1">Days+15+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42989</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <f ca="1"/>
         <v>42990</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="8">
         <f ca="1"/>
         <v>42991</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="8">
         <f ca="1"/>
         <v>42992</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="8">
         <f ca="1"/>
         <v>42993</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="8">
         <f ca="1"/>
         <v>42994</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="9">
         <f ca="1"/>
         <v>42995</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+    <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8">
         <f t="array" aca="1" ref="B37:H37" ca="1">Days+22+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>42996</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <f ca="1"/>
         <v>42997</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="8">
         <f ca="1"/>
         <v>42998</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="8">
         <f ca="1"/>
         <v>42999</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="8">
         <f ca="1"/>
         <v>43000</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="8">
         <f ca="1"/>
         <v>43001</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="9">
         <f ca="1"/>
         <v>43002</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+    <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
         <f t="array" aca="1" ref="B39:H39" ca="1">Days+29+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43003</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <f ca="1"/>
         <v>43004</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="8">
         <f ca="1"/>
         <v>43005</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="8">
         <f ca="1"/>
         <v>43006</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="8">
         <f ca="1"/>
         <v>43007</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="8">
         <f ca="1"/>
         <v>43008</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="9">
         <f ca="1"/>
         <v>43009</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4">
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
         <f t="array" aca="1" ref="B41:C41" ca="1">Days+36+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43010</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <f ca="1"/>
         <v>43011</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="4">
+        <f>SUM(K31:K40)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="J42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="15">
+        <f>K41*15000</f>
+        <v>285000</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
         <f ca="1">YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2017</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7" t="str">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="str">
         <f ca="1">UPPER(TEXT(B45,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C44" s="8" t="str">
+      <c r="C44" s="7" t="str">
         <f t="shared" ref="C44" ca="1" si="13">UPPER(TEXT(C45,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D44" s="7" t="str">
+      <c r="D44" s="6" t="str">
         <f t="shared" ref="D44" ca="1" si="14">UPPER(TEXT(D45,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E44" s="8" t="str">
+      <c r="E44" s="7" t="str">
         <f t="shared" ref="E44" ca="1" si="15">UPPER(TEXT(E45,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F44" s="7" t="str">
+      <c r="F44" s="6" t="str">
         <f t="shared" ref="F44" ca="1" si="16">UPPER(TEXT(F45,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G44" s="8" t="str">
+      <c r="G44" s="7" t="str">
         <f t="shared" ref="G44" ca="1" si="17">UPPER(TEXT(G45,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H44" s="7" t="str">
+      <c r="H44" s="6" t="str">
         <f t="shared" ref="H44" ca="1" si="18">UPPER(TEXT(H45,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+    <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
         <f t="array" aca="1" ref="B45:H45" ca="1">Days+1+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43003</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="8">
         <f ca="1"/>
         <v>43004</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="8">
         <f ca="1"/>
         <v>43005</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="8">
         <f ca="1"/>
         <v>43006</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="8">
         <f ca="1"/>
         <v>43007</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="8">
         <f ca="1"/>
         <v>43008</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="9">
         <f ca="1"/>
         <v>43009</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1987,37 +2124,37 @@
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="8">
         <f t="array" aca="1" ref="B47:H47" ca="1">Days+8+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43010</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="8">
         <f ca="1"/>
         <v>43011</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="8">
         <f ca="1"/>
         <v>43012</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="8">
         <f ca="1"/>
         <v>43013</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="8">
         <f ca="1"/>
         <v>43014</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="8">
         <f ca="1"/>
         <v>43015</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="9">
         <f ca="1"/>
         <v>43016</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2027,31 +2164,31 @@
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="4">
+      <c r="B49" s="8">
         <f t="array" aca="1" ref="B49:H49" ca="1">Days+15+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43017</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="8">
         <f ca="1"/>
         <v>43018</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="8">
         <f ca="1"/>
         <v>43019</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="8">
         <f ca="1"/>
         <v>43020</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="8">
         <f ca="1"/>
         <v>43021</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="8">
         <f ca="1"/>
         <v>43022</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="9">
         <f ca="1"/>
         <v>43023</v>
       </c>
@@ -2066,31 +2203,31 @@
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="4">
+      <c r="B51" s="8">
         <f t="array" aca="1" ref="B51:H51" ca="1">Days+22+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43024</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="8">
         <f ca="1"/>
         <v>43025</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="8">
         <f ca="1"/>
         <v>43026</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="8">
         <f ca="1"/>
         <v>43027</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="8">
         <f ca="1"/>
         <v>43028</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="8">
         <f ca="1"/>
         <v>43029</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="9">
         <f ca="1"/>
         <v>43030</v>
       </c>
@@ -2105,31 +2242,31 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="B53" s="8">
         <f t="array" aca="1" ref="B53:H53" ca="1">Days+29+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43031</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="8">
         <f ca="1"/>
         <v>43032</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="8">
         <f ca="1"/>
         <v>43033</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="8">
         <f ca="1"/>
         <v>43034</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="8">
         <f ca="1"/>
         <v>43035</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="8">
         <f ca="1"/>
         <v>43036</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="9">
         <f ca="1"/>
         <v>43037</v>
       </c>
@@ -2141,107 +2278,107 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="4">
+      <c r="B55" s="8">
         <f t="array" aca="1" ref="B55:C55" ca="1">Days+36+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43038</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="8">
         <f ca="1"/>
         <v>43039</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2">
         <f ca="1">YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2017</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C57" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="2"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7" t="str">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6" t="str">
         <f ca="1">UPPER(TEXT(B59,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="7" t="str">
         <f t="shared" ref="C58" ca="1" si="19">UPPER(TEXT(C59,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="6" t="str">
         <f t="shared" ref="D58" ca="1" si="20">UPPER(TEXT(D59,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E58" s="8" t="str">
+      <c r="E58" s="7" t="str">
         <f t="shared" ref="E58" ca="1" si="21">UPPER(TEXT(E59,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F58" s="7" t="str">
+      <c r="F58" s="6" t="str">
         <f t="shared" ref="F58" ca="1" si="22">UPPER(TEXT(F59,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G58" s="8" t="str">
+      <c r="G58" s="7" t="str">
         <f t="shared" ref="G58" ca="1" si="23">UPPER(TEXT(G59,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H58" s="7" t="str">
+      <c r="H58" s="6" t="str">
         <f t="shared" ref="H58" ca="1" si="24">UPPER(TEXT(H59,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+      <c r="B59" s="8">
         <f t="array" aca="1" ref="B59:H59" ca="1">Days+1+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43038</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="8">
         <f ca="1"/>
         <v>43039</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="8">
         <f ca="1"/>
         <v>43040</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="8">
         <f ca="1"/>
         <v>43041</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="8">
         <f ca="1"/>
         <v>43042</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="8">
         <f ca="1"/>
         <v>43043</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="9">
         <f ca="1"/>
         <v>43044</v>
       </c>
@@ -2256,31 +2393,31 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="4">
+      <c r="B61" s="8">
         <f t="array" aca="1" ref="B61:H61" ca="1">Days+8+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43045</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="8">
         <f ca="1"/>
         <v>43046</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="8">
         <f ca="1"/>
         <v>43047</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="8">
         <f ca="1"/>
         <v>43048</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="8">
         <f ca="1"/>
         <v>43049</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="8">
         <f ca="1"/>
         <v>43050</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="9">
         <f ca="1"/>
         <v>43051</v>
       </c>
@@ -2295,31 +2432,31 @@
       <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4">
+      <c r="B63" s="8">
         <f t="array" aca="1" ref="B63:H63" ca="1">Days+15+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43052</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="8">
         <f ca="1"/>
         <v>43053</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="8">
         <f ca="1"/>
         <v>43054</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="8">
         <f ca="1"/>
         <v>43055</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="8">
         <f ca="1"/>
         <v>43056</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="8">
         <f ca="1"/>
         <v>43057</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="9">
         <f ca="1"/>
         <v>43058</v>
       </c>
@@ -2334,31 +2471,31 @@
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4">
+      <c r="B65" s="8">
         <f t="array" aca="1" ref="B65:H65" ca="1">Days+22+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43059</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="8">
         <f ca="1"/>
         <v>43060</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="8">
         <f ca="1"/>
         <v>43061</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="8">
         <f ca="1"/>
         <v>43062</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="8">
         <f ca="1"/>
         <v>43063</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="8">
         <f ca="1"/>
         <v>43064</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="9">
         <f ca="1"/>
         <v>43065</v>
       </c>
@@ -2373,31 +2510,31 @@
       <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="4">
+      <c r="B67" s="8">
         <f t="array" aca="1" ref="B67:H67" ca="1">Days+29+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43066</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="8">
         <f ca="1"/>
         <v>43067</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="8">
         <f ca="1"/>
         <v>43068</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="8">
         <f ca="1"/>
         <v>43069</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="8">
         <f ca="1"/>
         <v>43070</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="8">
         <f ca="1"/>
         <v>43071</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="9">
         <f ca="1"/>
         <v>43072</v>
       </c>
@@ -2409,107 +2546,107 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="4">
+      <c r="B69" s="8">
         <f t="array" aca="1" ref="B69:C69" ca="1">Days+36+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43073</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="8">
         <f ca="1"/>
         <v>43074</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2">
         <f ca="1">YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2017</v>
       </c>
-      <c r="C71" s="6" t="str">
+      <c r="C71" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="2"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="7" t="str">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6" t="str">
         <f ca="1">UPPER(TEXT(B73,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="7" t="str">
         <f t="shared" ref="C72" ca="1" si="25">UPPER(TEXT(C73,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D72" s="7" t="str">
+      <c r="D72" s="6" t="str">
         <f t="shared" ref="D72" ca="1" si="26">UPPER(TEXT(D73,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E72" s="8" t="str">
+      <c r="E72" s="7" t="str">
         <f t="shared" ref="E72" ca="1" si="27">UPPER(TEXT(E73,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F72" s="7" t="str">
+      <c r="F72" s="6" t="str">
         <f t="shared" ref="F72" ca="1" si="28">UPPER(TEXT(F73,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G72" s="8" t="str">
+      <c r="G72" s="7" t="str">
         <f t="shared" ref="G72" ca="1" si="29">UPPER(TEXT(G73,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H72" s="7" t="str">
+      <c r="H72" s="6" t="str">
         <f t="shared" ref="H72" ca="1" si="30">UPPER(TEXT(H73,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="4">
+      <c r="B73" s="8">
         <f t="array" aca="1" ref="B73:H73" ca="1">Days+1+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43066</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="8">
         <f ca="1"/>
         <v>43067</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="8">
         <f ca="1"/>
         <v>43068</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="8">
         <f ca="1"/>
         <v>43069</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="8">
         <f ca="1"/>
         <v>43070</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="8">
         <f ca="1"/>
         <v>43071</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="9">
         <f ca="1"/>
         <v>43072</v>
       </c>
@@ -2524,31 +2661,31 @@
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="4">
+      <c r="B75" s="8">
         <f t="array" aca="1" ref="B75:H75" ca="1">Days+8+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43073</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="8">
         <f ca="1"/>
         <v>43074</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="8">
         <f ca="1"/>
         <v>43075</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="8">
         <f ca="1"/>
         <v>43076</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="8">
         <f ca="1"/>
         <v>43077</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="8">
         <f ca="1"/>
         <v>43078</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="9">
         <f ca="1"/>
         <v>43079</v>
       </c>
@@ -2563,31 +2700,31 @@
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="4">
+      <c r="B77" s="8">
         <f t="array" aca="1" ref="B77:H77" ca="1">Days+15+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43080</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="8">
         <f ca="1"/>
         <v>43081</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="8">
         <f ca="1"/>
         <v>43082</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="8">
         <f ca="1"/>
         <v>43083</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="8">
         <f ca="1"/>
         <v>43084</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="8">
         <f ca="1"/>
         <v>43085</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="9">
         <f ca="1"/>
         <v>43086</v>
       </c>
@@ -2602,31 +2739,31 @@
       <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="4">
+      <c r="B79" s="8">
         <f t="array" aca="1" ref="B79:H79" ca="1">Days+22+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43087</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="8">
         <f ca="1"/>
         <v>43088</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="8">
         <f ca="1"/>
         <v>43089</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="8">
         <f ca="1"/>
         <v>43090</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="8">
         <f ca="1"/>
         <v>43091</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="8">
         <f ca="1"/>
         <v>43092</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="9">
         <f ca="1"/>
         <v>43093</v>
       </c>
@@ -2641,31 +2778,31 @@
       <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="4">
+      <c r="B81" s="8">
         <f t="array" aca="1" ref="B81:H81" ca="1">Days+29+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43094</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="8">
         <f ca="1"/>
         <v>43095</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="8">
         <f ca="1"/>
         <v>43096</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="8">
         <f ca="1"/>
         <v>43097</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="8">
         <f ca="1"/>
         <v>43098</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="8">
         <f ca="1"/>
         <v>43099</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="9">
         <f ca="1"/>
         <v>43100</v>
       </c>
@@ -2677,107 +2814,107 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="12"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="4">
+      <c r="B83" s="8">
         <f t="array" aca="1" ref="B83:C83" ca="1">Days+36+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43101</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="8">
         <f ca="1"/>
         <v>43102</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A85" s="2"/>
-      <c r="B85" s="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2">
         <f ca="1">YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C85" s="6" t="str">
+      <c r="C85" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>January</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="2"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="7" t="str">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6" t="str">
         <f ca="1">UPPER(TEXT(B87,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C86" s="8" t="str">
+      <c r="C86" s="7" t="str">
         <f t="shared" ref="C86" ca="1" si="31">UPPER(TEXT(C87,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D86" s="7" t="str">
+      <c r="D86" s="6" t="str">
         <f t="shared" ref="D86" ca="1" si="32">UPPER(TEXT(D87,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E86" s="8" t="str">
+      <c r="E86" s="7" t="str">
         <f t="shared" ref="E86" ca="1" si="33">UPPER(TEXT(E87,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F86" s="7" t="str">
+      <c r="F86" s="6" t="str">
         <f t="shared" ref="F86" ca="1" si="34">UPPER(TEXT(F87,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G86" s="8" t="str">
+      <c r="G86" s="7" t="str">
         <f t="shared" ref="G86" ca="1" si="35">UPPER(TEXT(G87,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H86" s="7" t="str">
+      <c r="H86" s="6" t="str">
         <f t="shared" ref="H86" ca="1" si="36">UPPER(TEXT(H87,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="4">
+      <c r="B87" s="8">
         <f t="array" aca="1" ref="B87:H87" ca="1">Days+1+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43101</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="8">
         <f ca="1"/>
         <v>43102</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="8">
         <f ca="1"/>
         <v>43103</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="8">
         <f ca="1"/>
         <v>43104</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="8">
         <f ca="1"/>
         <v>43105</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="8">
         <f ca="1"/>
         <v>43106</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="9">
         <f ca="1"/>
         <v>43107</v>
       </c>
@@ -2792,31 +2929,31 @@
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="4">
+      <c r="B89" s="8">
         <f t="array" aca="1" ref="B89:H89" ca="1">Days+8+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43108</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="8">
         <f ca="1"/>
         <v>43109</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="8">
         <f ca="1"/>
         <v>43110</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="8">
         <f ca="1"/>
         <v>43111</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="8">
         <f ca="1"/>
         <v>43112</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="8">
         <f ca="1"/>
         <v>43113</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="9">
         <f ca="1"/>
         <v>43114</v>
       </c>
@@ -2831,31 +2968,31 @@
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="4">
+      <c r="B91" s="8">
         <f t="array" aca="1" ref="B91:H91" ca="1">Days+15+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43115</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="8">
         <f ca="1"/>
         <v>43116</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="8">
         <f ca="1"/>
         <v>43117</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="8">
         <f ca="1"/>
         <v>43118</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="8">
         <f ca="1"/>
         <v>43119</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="8">
         <f ca="1"/>
         <v>43120</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="9">
         <f ca="1"/>
         <v>43121</v>
       </c>
@@ -2870,31 +3007,31 @@
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="4">
+      <c r="B93" s="8">
         <f t="array" aca="1" ref="B93:H93" ca="1">Days+22+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43122</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="8">
         <f ca="1"/>
         <v>43123</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="8">
         <f ca="1"/>
         <v>43124</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="8">
         <f ca="1"/>
         <v>43125</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="8">
         <f ca="1"/>
         <v>43126</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="8">
         <f ca="1"/>
         <v>43127</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="9">
         <f ca="1"/>
         <v>43128</v>
       </c>
@@ -2909,31 +3046,31 @@
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="4">
+      <c r="B95" s="8">
         <f t="array" aca="1" ref="B95:H95" ca="1">Days+29+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43129</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="8">
         <f ca="1"/>
         <v>43130</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="8">
         <f ca="1"/>
         <v>43131</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="8">
         <f ca="1"/>
         <v>43132</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="8">
         <f ca="1"/>
         <v>43133</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="8">
         <f ca="1"/>
         <v>43134</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="9">
         <f ca="1"/>
         <v>43135</v>
       </c>
@@ -2945,107 +3082,107 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="12"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="4">
+      <c r="B97" s="8">
         <f t="array" aca="1" ref="B97:C97" ca="1">Days+36+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43136</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="8">
         <f ca="1"/>
         <v>43137</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2">
         <f ca="1">YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C99" s="6" t="str">
+      <c r="C99" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="2"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="7" t="str">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6" t="str">
         <f ca="1">UPPER(TEXT(B101,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C100" s="8" t="str">
+      <c r="C100" s="7" t="str">
         <f t="shared" ref="C100" ca="1" si="37">UPPER(TEXT(C101,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D100" s="7" t="str">
+      <c r="D100" s="6" t="str">
         <f t="shared" ref="D100" ca="1" si="38">UPPER(TEXT(D101,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E100" s="8" t="str">
+      <c r="E100" s="7" t="str">
         <f t="shared" ref="E100" ca="1" si="39">UPPER(TEXT(E101,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F100" s="7" t="str">
+      <c r="F100" s="6" t="str">
         <f t="shared" ref="F100" ca="1" si="40">UPPER(TEXT(F101,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G100" s="8" t="str">
+      <c r="G100" s="7" t="str">
         <f t="shared" ref="G100" ca="1" si="41">UPPER(TEXT(G101,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H100" s="7" t="str">
+      <c r="H100" s="6" t="str">
         <f t="shared" ref="H100" ca="1" si="42">UPPER(TEXT(H101,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="4">
+      <c r="B101" s="8">
         <f t="array" aca="1" ref="B101:H101" ca="1">Days+1+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43129</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="8">
         <f ca="1"/>
         <v>43130</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="8">
         <f ca="1"/>
         <v>43131</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="8">
         <f ca="1"/>
         <v>43132</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="8">
         <f ca="1"/>
         <v>43133</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="8">
         <f ca="1"/>
         <v>43134</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="9">
         <f ca="1"/>
         <v>43135</v>
       </c>
@@ -3060,31 +3197,31 @@
       <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="4">
+      <c r="B103" s="8">
         <f t="array" aca="1" ref="B103:H103" ca="1">Days+8+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43136</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="8">
         <f ca="1"/>
         <v>43137</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="8">
         <f ca="1"/>
         <v>43138</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="8">
         <f ca="1"/>
         <v>43139</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="8">
         <f ca="1"/>
         <v>43140</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="8">
         <f ca="1"/>
         <v>43141</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="9">
         <f ca="1"/>
         <v>43142</v>
       </c>
@@ -3099,31 +3236,31 @@
       <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="4">
+      <c r="B105" s="8">
         <f t="array" aca="1" ref="B105:H105" ca="1">Days+15+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43143</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="8">
         <f ca="1"/>
         <v>43144</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="8">
         <f ca="1"/>
         <v>43145</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="8">
         <f ca="1"/>
         <v>43146</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="8">
         <f ca="1"/>
         <v>43147</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="8">
         <f ca="1"/>
         <v>43148</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="9">
         <f ca="1"/>
         <v>43149</v>
       </c>
@@ -3138,31 +3275,31 @@
       <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="4">
+      <c r="B107" s="8">
         <f t="array" aca="1" ref="B107:H107" ca="1">Days+22+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43150</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="8">
         <f ca="1"/>
         <v>43151</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="8">
         <f ca="1"/>
         <v>43152</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="8">
         <f ca="1"/>
         <v>43153</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="8">
         <f ca="1"/>
         <v>43154</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="8">
         <f ca="1"/>
         <v>43155</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="9">
         <f ca="1"/>
         <v>43156</v>
       </c>
@@ -3177,31 +3314,31 @@
       <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <f t="array" aca="1" ref="B109:H109" ca="1">Days+29+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43157</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="8">
         <f ca="1"/>
         <v>43158</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="8">
         <f ca="1"/>
         <v>43159</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="8">
         <f ca="1"/>
         <v>43160</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="8">
         <f ca="1"/>
         <v>43161</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="8">
         <f ca="1"/>
         <v>43162</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="9">
         <f ca="1"/>
         <v>43163</v>
       </c>
@@ -3213,107 +3350,107 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="12"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="4">
+      <c r="B111" s="8">
         <f t="array" aca="1" ref="B111:C111" ca="1">Days+36+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43164</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="8">
         <f ca="1"/>
         <v>43165</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2">
         <f ca="1">YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C113" s="6" t="str">
+      <c r="C113" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="2"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="7" t="str">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6" t="str">
         <f ca="1">UPPER(TEXT(B115,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C114" s="8" t="str">
+      <c r="C114" s="7" t="str">
         <f t="shared" ref="C114" ca="1" si="43">UPPER(TEXT(C115,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D114" s="7" t="str">
+      <c r="D114" s="6" t="str">
         <f t="shared" ref="D114" ca="1" si="44">UPPER(TEXT(D115,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E114" s="8" t="str">
+      <c r="E114" s="7" t="str">
         <f t="shared" ref="E114" ca="1" si="45">UPPER(TEXT(E115,"dddd"))</f>
         <v>THURSDAY</v>
       </c>
-      <c r="F114" s="7" t="str">
+      <c r="F114" s="6" t="str">
         <f t="shared" ref="F114" ca="1" si="46">UPPER(TEXT(F115,"dddd"))</f>
         <v>FRIDAY</v>
       </c>
-      <c r="G114" s="8" t="str">
+      <c r="G114" s="7" t="str">
         <f t="shared" ref="G114" ca="1" si="47">UPPER(TEXT(G115,"dddd"))</f>
         <v>SATURDAY</v>
       </c>
-      <c r="H114" s="7" t="str">
+      <c r="H114" s="6" t="str">
         <f t="shared" ref="H114" ca="1" si="48">UPPER(TEXT(H115,"dddd"))</f>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="4">
+      <c r="B115" s="8">
         <f t="array" aca="1" ref="B115:H115" ca="1">Days+1+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43157</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="8">
         <f ca="1"/>
         <v>43158</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="8">
         <f ca="1"/>
         <v>43159</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="8">
         <f ca="1"/>
         <v>43160</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="8">
         <f ca="1"/>
         <v>43161</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="8">
         <f ca="1"/>
         <v>43162</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="9">
         <f ca="1"/>
         <v>43163</v>
       </c>
@@ -3328,31 +3465,31 @@
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="4">
+      <c r="B117" s="8">
         <f t="array" aca="1" ref="B117:H117" ca="1">Days+8+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43164</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="8">
         <f ca="1"/>
         <v>43165</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="8">
         <f ca="1"/>
         <v>43166</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="8">
         <f ca="1"/>
         <v>43167</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="8">
         <f ca="1"/>
         <v>43168</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="8">
         <f ca="1"/>
         <v>43169</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="9">
         <f ca="1"/>
         <v>43170</v>
       </c>
@@ -3367,31 +3504,31 @@
       <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="4">
+      <c r="B119" s="8">
         <f t="array" aca="1" ref="B119:H119" ca="1">Days+15+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43171</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="8">
         <f ca="1"/>
         <v>43172</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="8">
         <f ca="1"/>
         <v>43173</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="8">
         <f ca="1"/>
         <v>43174</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="8">
         <f ca="1"/>
         <v>43175</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="8">
         <f ca="1"/>
         <v>43176</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="9">
         <f ca="1"/>
         <v>43177</v>
       </c>
@@ -3406,31 +3543,31 @@
       <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="4">
+      <c r="B121" s="8">
         <f t="array" aca="1" ref="B121:H121" ca="1">Days+22+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43178</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="8">
         <f ca="1"/>
         <v>43179</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="8">
         <f ca="1"/>
         <v>43180</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="8">
         <f ca="1"/>
         <v>43181</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="8">
         <f ca="1"/>
         <v>43182</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="8">
         <f ca="1"/>
         <v>43183</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="9">
         <f ca="1"/>
         <v>43184</v>
       </c>
@@ -3445,31 +3582,31 @@
       <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="4">
+      <c r="B123" s="8">
         <f t="array" aca="1" ref="B123:H123" ca="1">Days+29+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43185</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="8">
         <f ca="1"/>
         <v>43186</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="8">
         <f ca="1"/>
         <v>43187</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="8">
         <f ca="1"/>
         <v>43188</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="8">
         <f ca="1"/>
         <v>43189</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="8">
         <f ca="1"/>
         <v>43190</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="9">
         <f ca="1"/>
         <v>43191</v>
       </c>
@@ -3481,107 +3618,107 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="12"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="4">
+      <c r="B125" s="8">
         <f t="array" aca="1" ref="B125:C125" ca="1">Days+36+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43192</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="8">
         <f ca="1"/>
         <v>43193</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A127" s="2"/>
-      <c r="B127" s="1">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2">
         <f ca="1">YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C127" s="6" t="str">
+      <c r="C127" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="2"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="7" t="str">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6" t="str">
         <f ca="1">UPPER(TEXT(B129,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C128" s="8" t="str">
+      <c r="C128" s="7" t="str">
         <f t="shared" ref="C128:H128" ca="1" si="49">UPPER(TEXT(C129,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D128" s="7" t="str">
+      <c r="D128" s="6" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E128" s="8" t="str">
+      <c r="E128" s="7" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F128" s="7" t="str">
+      <c r="F128" s="6" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G128" s="8" t="str">
+      <c r="G128" s="7" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H128" s="7" t="str">
+      <c r="H128" s="6" t="str">
         <f t="shared" ca="1" si="49"/>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="4">
+      <c r="B129" s="8">
         <f t="array" aca="1" ref="B129:H129" ca="1">Days+1+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43185</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="8">
         <f ca="1"/>
         <v>43186</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="8">
         <f ca="1"/>
         <v>43187</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="8">
         <f ca="1"/>
         <v>43188</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="8">
         <f ca="1"/>
         <v>43189</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="8">
         <f ca="1"/>
         <v>43190</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="9">
         <f ca="1"/>
         <v>43191</v>
       </c>
@@ -3596,31 +3733,31 @@
       <c r="H130" s="11"/>
     </row>
     <row r="131" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="4">
+      <c r="B131" s="8">
         <f t="array" aca="1" ref="B131:H131" ca="1">Days+8+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43192</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="8">
         <f ca="1"/>
         <v>43193</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="8">
         <f ca="1"/>
         <v>43194</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="8">
         <f ca="1"/>
         <v>43195</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="8">
         <f ca="1"/>
         <v>43196</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="8">
         <f ca="1"/>
         <v>43197</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="9">
         <f ca="1"/>
         <v>43198</v>
       </c>
@@ -3635,31 +3772,31 @@
       <c r="H132" s="11"/>
     </row>
     <row r="133" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="4">
+      <c r="B133" s="8">
         <f t="array" aca="1" ref="B133:H133" ca="1">Days+15+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43199</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="8">
         <f ca="1"/>
         <v>43200</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="8">
         <f ca="1"/>
         <v>43201</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="8">
         <f ca="1"/>
         <v>43202</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="8">
         <f ca="1"/>
         <v>43203</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="8">
         <f ca="1"/>
         <v>43204</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="9">
         <f ca="1"/>
         <v>43205</v>
       </c>
@@ -3674,31 +3811,31 @@
       <c r="H134" s="11"/>
     </row>
     <row r="135" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="4">
+      <c r="B135" s="8">
         <f t="array" aca="1" ref="B135:H135" ca="1">Days+22+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43206</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="8">
         <f ca="1"/>
         <v>43207</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="8">
         <f ca="1"/>
         <v>43208</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="8">
         <f ca="1"/>
         <v>43209</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="8">
         <f ca="1"/>
         <v>43210</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="8">
         <f ca="1"/>
         <v>43211</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="9">
         <f ca="1"/>
         <v>43212</v>
       </c>
@@ -3713,31 +3850,31 @@
       <c r="H136" s="11"/>
     </row>
     <row r="137" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="4">
+      <c r="B137" s="8">
         <f t="array" aca="1" ref="B137:H137" ca="1">Days+29+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43213</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="8">
         <f ca="1"/>
         <v>43214</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="8">
         <f ca="1"/>
         <v>43215</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="8">
         <f ca="1"/>
         <v>43216</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="8">
         <f ca="1"/>
         <v>43217</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="8">
         <f ca="1"/>
         <v>43218</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="9">
         <f ca="1"/>
         <v>43219</v>
       </c>
@@ -3749,105 +3886,105 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="12"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="4">
+      <c r="B139" s="8">
         <f t="array" aca="1" ref="B139:C139" ca="1">Days+36+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43220</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="8">
         <f ca="1"/>
         <v>43221</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <f ca="1">YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C141" s="6" t="str">
+      <c r="C141" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="2"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="1"/>
     </row>
     <row r="142" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="7" t="str">
+      <c r="B142" s="6" t="str">
         <f ca="1">UPPER(TEXT(B143,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C142" s="8" t="str">
+      <c r="C142" s="7" t="str">
         <f t="shared" ref="C142:H142" ca="1" si="50">UPPER(TEXT(C143,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D142" s="7" t="str">
+      <c r="D142" s="6" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E142" s="8" t="str">
+      <c r="E142" s="7" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F142" s="7" t="str">
+      <c r="F142" s="6" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G142" s="8" t="str">
+      <c r="G142" s="7" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H142" s="7" t="str">
+      <c r="H142" s="6" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="4">
+      <c r="B143" s="8">
         <f t="array" aca="1" ref="B143:H143" ca="1">Days+1+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43220</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="8">
         <f ca="1"/>
         <v>43221</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="8">
         <f ca="1"/>
         <v>43222</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="8">
         <f ca="1"/>
         <v>43223</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="8">
         <f ca="1"/>
         <v>43224</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="8">
         <f ca="1"/>
         <v>43225</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="9">
         <f ca="1"/>
         <v>43226</v>
       </c>
@@ -3862,31 +3999,31 @@
       <c r="H144" s="11"/>
     </row>
     <row r="145" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="4">
+      <c r="B145" s="8">
         <f t="array" aca="1" ref="B145:H145" ca="1">Days+8+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43227</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="8">
         <f ca="1"/>
         <v>43228</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="8">
         <f ca="1"/>
         <v>43229</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="8">
         <f ca="1"/>
         <v>43230</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="8">
         <f ca="1"/>
         <v>43231</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="8">
         <f ca="1"/>
         <v>43232</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="9">
         <f ca="1"/>
         <v>43233</v>
       </c>
@@ -3901,31 +4038,31 @@
       <c r="H146" s="11"/>
     </row>
     <row r="147" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="4">
+      <c r="B147" s="8">
         <f t="array" aca="1" ref="B147:H147" ca="1">Days+15+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43234</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="8">
         <f ca="1"/>
         <v>43235</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="8">
         <f ca="1"/>
         <v>43236</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="8">
         <f ca="1"/>
         <v>43237</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="8">
         <f ca="1"/>
         <v>43238</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="8">
         <f ca="1"/>
         <v>43239</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="9">
         <f ca="1"/>
         <v>43240</v>
       </c>
@@ -3940,31 +4077,31 @@
       <c r="H148" s="11"/>
     </row>
     <row r="149" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="4">
+      <c r="B149" s="8">
         <f t="array" aca="1" ref="B149:H149" ca="1">Days+22+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43241</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="8">
         <f ca="1"/>
         <v>43242</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="8">
         <f ca="1"/>
         <v>43243</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="8">
         <f ca="1"/>
         <v>43244</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="8">
         <f ca="1"/>
         <v>43245</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="8">
         <f ca="1"/>
         <v>43246</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="9">
         <f ca="1"/>
         <v>43247</v>
       </c>
@@ -3979,31 +4116,31 @@
       <c r="H150" s="11"/>
     </row>
     <row r="151" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="4">
+      <c r="B151" s="8">
         <f t="array" aca="1" ref="B151:H151" ca="1">Days+29+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43248</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="8">
         <f ca="1"/>
         <v>43249</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="8">
         <f ca="1"/>
         <v>43250</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="8">
         <f ca="1"/>
         <v>43251</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="8">
         <f ca="1"/>
         <v>43252</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="8">
         <f ca="1"/>
         <v>43253</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="9">
         <f ca="1"/>
         <v>43254</v>
       </c>
@@ -4015,105 +4152,105 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="12"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="4">
+      <c r="B153" s="8">
         <f t="array" aca="1" ref="B153:C153" ca="1">Days+36+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43255</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="8">
         <f ca="1"/>
         <v>43256</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <f ca="1">YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2018</v>
       </c>
-      <c r="C155" s="6" t="str">
+      <c r="C155" s="3" t="str">
         <f ca="1">TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="2"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="1"/>
     </row>
     <row r="156" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="7" t="str">
+      <c r="B156" s="6" t="str">
         <f ca="1">UPPER(TEXT(B157,"dddd"))</f>
         <v>MONDAY</v>
       </c>
-      <c r="C156" s="8" t="str">
+      <c r="C156" s="7" t="str">
         <f t="shared" ref="C156:H156" ca="1" si="51">UPPER(TEXT(C157,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D156" s="7" t="str">
+      <c r="D156" s="6" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E156" s="8" t="str">
+      <c r="E156" s="7" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F156" s="7" t="str">
+      <c r="F156" s="6" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G156" s="8" t="str">
+      <c r="G156" s="7" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H156" s="7" t="str">
+      <c r="H156" s="6" t="str">
         <f t="shared" ca="1" si="51"/>
         <v>SUNDAY</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="4">
+      <c r="B157" s="8">
         <f t="array" aca="1" ref="B157:H157" ca="1">Days+1+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43248</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="8">
         <f ca="1"/>
         <v>43249</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="8">
         <f ca="1"/>
         <v>43250</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="8">
         <f ca="1"/>
         <v>43251</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="8">
         <f ca="1"/>
         <v>43252</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="8">
         <f ca="1"/>
         <v>43253</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="9">
         <f ca="1"/>
         <v>43254</v>
       </c>
@@ -4128,31 +4265,31 @@
       <c r="H158" s="11"/>
     </row>
     <row r="159" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="4">
+      <c r="B159" s="8">
         <f t="array" aca="1" ref="B159:H159" ca="1">Days+8+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43255</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="8">
         <f ca="1"/>
         <v>43256</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="8">
         <f ca="1"/>
         <v>43257</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="8">
         <f ca="1"/>
         <v>43258</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="8">
         <f ca="1"/>
         <v>43259</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="8">
         <f ca="1"/>
         <v>43260</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="9">
         <f ca="1"/>
         <v>43261</v>
       </c>
@@ -4167,31 +4304,31 @@
       <c r="H160" s="11"/>
     </row>
     <row r="161" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="4">
+      <c r="B161" s="8">
         <f t="array" aca="1" ref="B161:H161" ca="1">Days+15+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43262</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="8">
         <f ca="1"/>
         <v>43263</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="8">
         <f ca="1"/>
         <v>43264</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="8">
         <f ca="1"/>
         <v>43265</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="8">
         <f ca="1"/>
         <v>43266</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="8">
         <f ca="1"/>
         <v>43267</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="9">
         <f ca="1"/>
         <v>43268</v>
       </c>
@@ -4206,31 +4343,31 @@
       <c r="H162" s="11"/>
     </row>
     <row r="163" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="4">
+      <c r="B163" s="8">
         <f t="array" aca="1" ref="B163:H163" ca="1">Days+22+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43269</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="8">
         <f ca="1"/>
         <v>43270</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="8">
         <f ca="1"/>
         <v>43271</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="8">
         <f ca="1"/>
         <v>43272</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="8">
         <f ca="1"/>
         <v>43273</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="8">
         <f ca="1"/>
         <v>43274</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="9">
         <f ca="1"/>
         <v>43275</v>
       </c>
@@ -4245,31 +4382,31 @@
       <c r="H164" s="11"/>
     </row>
     <row r="165" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="4">
+      <c r="B165" s="8">
         <f t="array" aca="1" ref="B165:H165" ca="1">Days+29+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43276</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="8">
         <f ca="1"/>
         <v>43277</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="8">
         <f ca="1"/>
         <v>43278</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="8">
         <f ca="1"/>
         <v>43279</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="8">
         <f ca="1"/>
         <v>43280</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="8">
         <f ca="1"/>
         <v>43281</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="9">
         <f ca="1"/>
         <v>43282</v>
       </c>
@@ -4281,48 +4418,36 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
-      <c r="H166" s="12"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="4">
+      <c r="B167" s="8">
         <f t="array" aca="1" ref="B167:C167" ca="1">Days+36+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43283</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="8">
         <f ca="1"/>
         <v>43284</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
+  <mergeCells count="27">
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
@@ -4337,6 +4462,19 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
